--- a/Layouts/Example_EXCELLayout.xlsx
+++ b/Layouts/Example_EXCELLayout.xlsx
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1332,6 +1332,71 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3686175" cy="843693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文字方塊 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="476250"/>
+          <a:ext cx="3686175" cy="843693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2400"/>
+            <a:t>CROUNS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2400" baseline="0"/>
+            <a:t> International Lid</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2400" baseline="0"/>
+            <a:t>Ming-Han's Customer List</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1374,7 +1439,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="O17:P20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -1812,7 +1877,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
